--- a/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
+++ b/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
@@ -47,79 +47,79 @@
     <t xml:space="preserve">Single</t>
   </si>
   <si>
+    <t xml:space="preserve">אביב גפן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אור הירח</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אדם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין מוצא</t>
+  </si>
+  <si>
     <t xml:space="preserve">אריק איינשטיין</t>
   </si>
   <si>
     <t xml:space="preserve">עוף גוזל</t>
   </si>
   <si>
+    <t xml:space="preserve">יהורם גאון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קזבלן</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מרגלית צנעני</t>
+  </si>
+  <si>
+    <t xml:space="preserve">סתם שיר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עץ ירוק מפלסטיק</t>
+  </si>
+  <si>
+    <t xml:space="preserve">משה פרץ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כרמלה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קרן פלס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איתי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ריטה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עטוף ברחמים</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שושנה דמארי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כלניות</t>
+  </si>
+  <si>
     <t xml:space="preserve">שלום חנוך</t>
   </si>
   <si>
     <t xml:space="preserve">אהבת נעוריי</t>
   </si>
   <si>
-    <t xml:space="preserve">שושנה דמארי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כלניות</t>
-  </si>
-  <si>
     <t xml:space="preserve">שלמה ארצי</t>
   </si>
   <si>
+    <t xml:space="preserve">גבר הולך לאיבוד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ירח</t>
+  </si>
+  <si>
     <t xml:space="preserve">מלך העולם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אביב גפן</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אור הירח</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ריטה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עטוף ברחמים</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קרן פלס</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איתי</t>
-  </si>
-  <si>
-    <t xml:space="preserve">גבר הולך לאיבוד</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יהורם גאון</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קזבלן</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מרגלית צנעני</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עץ ירוק מפלסטיק</t>
-  </si>
-  <si>
-    <t xml:space="preserve">סתם שיר</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ירח</t>
-  </si>
-  <si>
-    <t xml:space="preserve">משה פרץ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כרמלה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אדם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אין מוצא</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -202,10 +202,9 @@
       <charset val="177"/>
     </font>
     <font>
-      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="David"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -241,9 +240,10 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="David"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -375,128 +375,132 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,7 +785,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,51 +794,51 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="14.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="14.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="3" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" s="6" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" s="7" customFormat="true" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="n">
-        <v>1993</v>
+      <c r="C3" s="13" t="n">
+        <v>2012</v>
       </c>
       <c r="D3" s="2" t="n">
         <f aca="false">E3*4</f>
@@ -843,19 +847,19 @@
       <c r="E3" s="2" t="n">
         <v>11.11</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="n">
-        <v>2003</v>
+      <c r="C4" s="13" t="n">
+        <v>1987</v>
       </c>
       <c r="D4" s="2" t="n">
         <f aca="false">E4*4</f>
@@ -864,19 +868,19 @@
       <c r="E4" s="2" t="n">
         <v>22.22</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="I4" s="17"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12" t="n">
-        <v>1945</v>
+      <c r="C5" s="13" t="n">
+        <v>1993</v>
       </c>
       <c r="D5" s="2" t="n">
         <f aca="false">E5*4</f>
@@ -885,19 +889,19 @@
       <c r="E5" s="2" t="n">
         <v>33.33</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="L5" s="18"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12" t="n">
-        <v>2010</v>
+      <c r="C6" s="13" t="n">
+        <v>1966</v>
       </c>
       <c r="D6" s="2" t="n">
         <f aca="false">E6*4</f>
@@ -906,23 +910,23 @@
       <c r="E6" s="2" t="n">
         <v>44.44</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="n">
-        <v>2012</v>
+      <c r="C7" s="13" t="n">
+        <v>2002</v>
       </c>
       <c r="D7" s="2" t="n">
         <f aca="false">E7*4</f>
@@ -931,19 +935,19 @@
       <c r="E7" s="2" t="n">
         <v>55.55</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="I7" s="19"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="12" t="n">
-        <v>1988</v>
+      <c r="C8" s="13" t="n">
+        <v>2009</v>
       </c>
       <c r="D8" s="2" t="n">
         <f aca="false">E8*4</f>
@@ -952,19 +956,19 @@
       <c r="E8" s="2" t="n">
         <v>66.66</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="I8" s="20"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="12" t="n">
-        <v>2010</v>
+      <c r="C9" s="13" t="n">
+        <v>2017</v>
       </c>
       <c r="D9" s="2" t="n">
         <f aca="false">E9*4</f>
@@ -973,19 +977,19 @@
       <c r="E9" s="2" t="n">
         <v>77.77</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="I9" s="19"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12" t="n">
-        <v>1978</v>
+      <c r="C10" s="13" t="n">
+        <v>2010</v>
       </c>
       <c r="D10" s="2" t="n">
         <f aca="false">E10*4</f>
@@ -994,19 +998,19 @@
       <c r="E10" s="2" t="n">
         <v>88.88</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="I10" s="19"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="12" t="n">
-        <v>1966</v>
+      <c r="C11" s="13" t="n">
+        <v>1988</v>
       </c>
       <c r="D11" s="2" t="n">
         <f aca="false">E11*4</f>
@@ -1015,19 +1019,19 @@
       <c r="E11" s="2" t="n">
         <v>99.99</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="I11" s="19"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12" t="n">
-        <v>2009</v>
+      <c r="C12" s="13" t="n">
+        <v>1945</v>
       </c>
       <c r="D12" s="2" t="n">
         <f aca="false">E12*4</f>
@@ -1036,19 +1040,19 @@
       <c r="E12" s="2" t="n">
         <v>88.88</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="I12" s="19"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="12" t="n">
-        <v>2002</v>
+      <c r="B13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="22" t="n">
+        <v>2003</v>
       </c>
       <c r="D13" s="2" t="n">
         <f aca="false">E13*4</f>
@@ -1057,19 +1061,19 @@
       <c r="E13" s="2" t="n">
         <v>77.77</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="I13" s="19"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="12" t="n">
-        <v>1992</v>
+      <c r="A14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="13" t="n">
+        <v>1978</v>
       </c>
       <c r="D14" s="2" t="n">
         <f aca="false">E14*4</f>
@@ -1078,21 +1082,21 @@
       <c r="E14" s="2" t="n">
         <v>66.66</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="12" t="n">
-        <v>2017</v>
+      <c r="B15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="n">
+        <v>1992</v>
       </c>
       <c r="D15" s="2" t="n">
         <f aca="false">E15*4</f>
@@ -1101,21 +1105,21 @@
       <c r="E15" s="2" t="n">
         <v>55.55</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="12" t="n">
-        <v>1987</v>
+      <c r="C16" s="13" t="n">
+        <v>2010</v>
       </c>
       <c r="D16" s="2" t="n">
         <f aca="false">E16*4</f>
@@ -1124,45 +1128,45 @@
       <c r="E16" s="2" t="n">
         <v>44.44</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="23"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26" t="n">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27" t="n">
         <f aca="false">SUM(D3:D16)</f>
         <v>3333</v>
       </c>
-      <c r="E17" s="26" t="n">
+      <c r="E17" s="27" t="n">
         <f aca="false">SUM(E3:E16)</f>
         <v>833.25</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I18" s="19"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="29"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="30"/>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I20" s="30"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F17"/>

--- a/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
+++ b/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
@@ -11,7 +11,7 @@
     <sheet name="שירים וזמרים" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'שירים וזמרים'!$A$1:$F$17</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'שירים וזמרים'!$A$1:$F$18</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Criteria" vbProcedure="false">'שירים וזמרים'!$I$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -23,8 +23,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Mega total</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t xml:space="preserve">Music</t>
   </si>
@@ -47,12 +69,18 @@
     <t xml:space="preserve">Single</t>
   </si>
   <si>
+    <t xml:space="preserve">Dropdown</t>
+  </si>
+  <si>
     <t xml:space="preserve">אביב גפן</t>
   </si>
   <si>
     <t xml:space="preserve">אור הירח</t>
   </si>
   <si>
+    <t xml:space="preserve">מרגלית צנעני</t>
+  </si>
+  <si>
     <t xml:space="preserve">אדם</t>
   </si>
   <si>
@@ -69,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">קזבלן</t>
-  </si>
-  <si>
-    <t xml:space="preserve">מרגלית צנעני</t>
   </si>
   <si>
     <t xml:space="preserve">סתם שיר</t>
@@ -133,7 +158,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$‎₪-40D]\ #,##0.00;[RED][$‎₪-40D]&quot; -&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +294,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -375,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -444,6 +474,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
@@ -490,6 +524,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -785,7 +823,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -829,13 +867,16 @@
         <v>6</v>
       </c>
       <c r="F2" s="11"/>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>2012</v>
@@ -850,13 +891,16 @@
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
       <c r="I3" s="16"/>
+      <c r="J3" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
-        <v>9</v>
+      <c r="A4" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>1987</v>
@@ -870,14 +914,14 @@
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="15"/>
-      <c r="I4" s="18"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>1993</v>
@@ -891,14 +935,14 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="15"/>
-      <c r="L5" s="19"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>1966</v>
@@ -912,18 +956,18 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>2002</v>
@@ -937,14 +981,14 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>2009</v>
@@ -958,14 +1002,14 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="15"/>
-      <c r="I8" s="21"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="13" t="n">
         <v>2017</v>
@@ -979,14 +1023,14 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="13" t="n">
         <v>2010</v>
@@ -1000,14 +1044,14 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="13" t="n">
         <v>1988</v>
@@ -1021,14 +1065,14 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>1945</v>
@@ -1042,16 +1086,16 @@
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="22" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" s="23" t="n">
         <v>2003</v>
       </c>
       <c r="D13" s="2" t="n">
@@ -1063,14 +1107,14 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>1978</v>
@@ -1084,16 +1128,16 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C15" s="13" t="n">
         <v>1992</v>
@@ -1107,16 +1151,16 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" s="13" t="n">
         <v>2010</v>
@@ -1130,53 +1174,63 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="24"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27" t="n">
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28" t="n">
         <f aca="false">SUM(D3:D16)</f>
         <v>3333</v>
       </c>
-      <c r="E17" s="27" t="n">
+      <c r="E17" s="28" t="n">
         <f aca="false">SUM(E3:E16)</f>
         <v>833.25</v>
       </c>
-      <c r="F17" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="F17" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I18" s="20"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="20"/>
+      <c r="D18" s="30" t="n">
+        <f aca="false">E17+D17</f>
+        <v>4166.25</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="30"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="32"/>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I20" s="31"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F17"/>
-  <mergeCells count="2">
+  <autoFilter ref="A1:F18"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D18:E18"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I4" type="list">
       <formula1>$F$4:$F$15</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J3" type="list">
+      <formula1>'שירים וזמרים'!$A$3:$A$16</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1187,6 +1241,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
+++ b/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t xml:space="preserve">Music</t>
   </si>
@@ -69,7 +69,10 @@
     <t xml:space="preserve">Single</t>
   </si>
   <si>
-    <t xml:space="preserve">Dropdown</t>
+    <t xml:space="preserve">Songs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artist</t>
   </si>
   <si>
     <t xml:space="preserve">אביב גפן</t>
@@ -78,27 +81,30 @@
     <t xml:space="preserve">אור הירח</t>
   </si>
   <si>
+    <t xml:space="preserve">קרן פלס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אדם</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין מוצא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אריק איינשטיין</t>
+  </si>
+  <si>
+    <t xml:space="preserve">עוף גוזל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יהורם גאון</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קזבלן</t>
+  </si>
+  <si>
     <t xml:space="preserve">מרגלית צנעני</t>
   </si>
   <si>
-    <t xml:space="preserve">אדם</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אין מוצא</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אריק איינשטיין</t>
-  </si>
-  <si>
-    <t xml:space="preserve">עוף גוזל</t>
-  </si>
-  <si>
-    <t xml:space="preserve">יהורם גאון</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קזבלן</t>
-  </si>
-  <si>
     <t xml:space="preserve">סתם שיר</t>
   </si>
   <si>
@@ -109,9 +115,6 @@
   </si>
   <si>
     <t xml:space="preserve">כרמלה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">קרן פלס</t>
   </si>
   <si>
     <t xml:space="preserve">איתי</t>
@@ -154,9 +157,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$‎₪-40D]\ #,##0.00;[RED][$‎₪-40D]&quot; -&quot;#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -180,6 +184,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -188,14 +200,6 @@
       <name val="David"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
     </font>
     <font>
       <b val="true"/>
@@ -380,7 +384,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,6 +408,24 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -422,19 +444,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,11 +468,11 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -470,7 +492,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,15 +540,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,13 +565,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Pivot Table Field" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
+    <cellStyle name="Pivot Table Value" xfId="22"/>
+    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Title" xfId="24"/>
+    <cellStyle name="Pivot Table Result" xfId="25"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -823,7 +851,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -867,16 +895,19 @@
         <v>6</v>
       </c>
       <c r="F2" s="11"/>
+      <c r="I2" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="J2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="13" t="n">
         <v>2012</v>
@@ -890,17 +921,20 @@
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="15"/>
-      <c r="I3" s="16"/>
+      <c r="I3" s="16" t="e">
+        <f aca="false">DGET(A:A,B:B,J3)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="J3" s="17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="13" t="n">
         <v>1987</v>
@@ -918,10 +952,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="13" t="n">
         <v>1993</v>
@@ -939,10 +973,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="13" t="n">
         <v>1966</v>
@@ -964,10 +998,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="13" t="n">
         <v>2002</v>
@@ -985,10 +1019,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="13" t="n">
         <v>2009</v>
@@ -1006,10 +1040,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="13" t="n">
         <v>2017</v>
@@ -1027,10 +1061,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="13" t="n">
         <v>2010</v>
@@ -1048,10 +1082,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="13" t="n">
         <v>1988</v>
@@ -1069,10 +1103,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>1945</v>
@@ -1090,10 +1124,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="23" t="n">
         <v>2003</v>
@@ -1111,10 +1145,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>1978</v>
@@ -1134,10 +1168,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="13" t="n">
         <v>1992</v>
@@ -1157,10 +1191,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="13" t="n">
         <v>2010</v>
@@ -1191,7 +1225,7 @@
         <v>833.25</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>

--- a/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
+++ b/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
@@ -5,16 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="שירים וזמרים" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Pivot Table_שירים וזמרים_1" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'שירים וזמרים'!$A$1:$F$18</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Criteria" vbProcedure="false">'שירים וזמרים'!$I$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t xml:space="preserve">Music</t>
   </si>
@@ -151,6 +155,12 @@
   </si>
   <si>
     <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Column B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum - Price</t>
   </si>
 </sst>
 </file>
@@ -319,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -383,6 +393,41 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -409,7 +454,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -417,17 +462,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -548,7 +593,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -562,6 +607,30 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -572,12 +641,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Field" xfId="20"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
     <cellStyle name="Pivot Table Corner" xfId="21"/>
-    <cellStyle name="Pivot Table Value" xfId="22"/>
-    <cellStyle name="Pivot Table Category" xfId="23"/>
+    <cellStyle name="Pivot Table Field" xfId="22"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
     <cellStyle name="Pivot Table Title" xfId="24"/>
-    <cellStyle name="Pivot Table Result" xfId="25"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -669,6 +738,310 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="17" createdVersion="3">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F18" sheet="שירים וזמרים"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Music" numFmtId="0">
+      <sharedItems containsBlank="1" count="13">
+        <s v="אביב גפן"/>
+        <s v="אדם"/>
+        <s v="אריק איינשטיין"/>
+        <s v="יהורם גאון"/>
+        <s v="מרגלית צנעני"/>
+        <s v="משה פרץ"/>
+        <s v="קרן פלס"/>
+        <s v="ריטה"/>
+        <s v="שושנה דמארי"/>
+        <s v="שלום חנוך"/>
+        <s v="שלמה ארצי"/>
+        <s v="שם הזמר"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column B" numFmtId="0">
+      <sharedItems containsBlank="1" count="16">
+        <s v="אהבת נעוריי"/>
+        <s v="אור הירח"/>
+        <s v="אין מוצא"/>
+        <s v="איתי"/>
+        <s v="גבר הולך לאיבוד"/>
+        <s v="ירח"/>
+        <s v="כלניות"/>
+        <s v="כרמלה"/>
+        <s v="מלך העולם"/>
+        <s v="סתם שיר"/>
+        <s v="עוף גוזל"/>
+        <s v="עטוף ברחמים"/>
+        <s v="עץ ירוק מפלסטיק"/>
+        <s v="קזבלן"/>
+        <s v="שם השיר "/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column C" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1945" maxValue="2017" count="15">
+        <n v="1945"/>
+        <n v="1966"/>
+        <n v="1978"/>
+        <n v="1987"/>
+        <n v="1988"/>
+        <n v="1992"/>
+        <n v="1993"/>
+        <n v="2002"/>
+        <n v="2003"/>
+        <n v="2009"/>
+        <n v="2010"/>
+        <n v="2012"/>
+        <n v="2017"/>
+        <s v="שנה "/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="44.44" maxValue="4166.25" count="12">
+        <n v="44.44"/>
+        <n v="88.88"/>
+        <n v="133.32"/>
+        <n v="177.76"/>
+        <n v="222.2"/>
+        <n v="266.64"/>
+        <n v="311.08"/>
+        <n v="355.52"/>
+        <n v="399.96"/>
+        <n v="3333"/>
+        <n v="4166.25"/>
+        <s v="Family"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column E" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="11.11" maxValue="833.25" count="12">
+        <n v="11.11"/>
+        <n v="22.22"/>
+        <n v="33.33"/>
+        <n v="44.44"/>
+        <n v="55.55"/>
+        <n v="66.66"/>
+        <n v="77.77"/>
+        <n v="88.88"/>
+        <n v="99.99"/>
+        <n v="833.25"/>
+        <s v="Single"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Column F" numFmtId="0">
+      <sharedItems containsBlank="1" count="2">
+        <s v="Total"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
+  <r>
+    <x v="11"/>
+    <x v="14"/>
+    <x v="13"/>
+    <x v="11"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="10"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="13"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <x v="9"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+    <x v="12"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="10"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="15"/>
+    <x v="14"/>
+    <x v="9"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="15"/>
+    <x v="14"/>
+    <x v="10"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" showDrill="0" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
+  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" compact="0" showAll="0" defaultSubtotal="0" outline="0">
+      <items count="13">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item h="1" x="15"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" showAll="0" outline="0"/>
+    <pivotField compact="0" showAll="0"/>
+    <pivotField compact="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum - Price" fld="3" subtotal="sum" numFmtId="165"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -850,8 +1223,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1278,4 +1651,52 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="39" t="n">
+        <v>355.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
+++ b/תרגיל אקסל - שירים וזמרים - קובץ למשתתפים.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="שירים וזמרים" sheetId="1" state="visible" r:id="rId3"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t xml:space="preserve">Music</t>
   </si>
@@ -73,7 +73,10 @@
     <t xml:space="preserve">Single</t>
   </si>
   <si>
-    <t xml:space="preserve">Songs</t>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Song</t>
   </si>
   <si>
     <t xml:space="preserve">Artist</t>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sum - Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Result</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +334,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -418,6 +430,20 @@
       <left style="medium"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -472,7 +498,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,6 +547,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
@@ -537,11 +567,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,15 +592,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -574,7 +608,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -586,7 +620,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -598,15 +632,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -630,6 +664,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,7 +1029,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" showDrill="0" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" showAll="0" defaultSubtotal="0" outline="0">
       <items count="13">
@@ -1223,8 +1265,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="117" zoomScaleNormal="117" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1268,21 +1310,24 @@
         <v>6</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="12" t="s">
         <v>8</v>
       </c>
+      <c r="J2" s="12" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="14" t="n">
         <v>2012</v>
       </c>
       <c r="D3" s="2" t="n">
@@ -1292,24 +1337,28 @@
       <c r="E3" s="2" t="n">
         <v>11.11</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="I3" s="16" t="e">
-        <f aca="false">DGET(A:A,B:B,J3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>11</v>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="n">
+        <f aca="false">VLOOKUP(J3,$A$3:$C$17,3,0)</f>
+        <v>2010</v>
+      </c>
+      <c r="I3" s="18" t="str">
+        <f aca="false">VLOOKUP(J3,$A$3:$C$17,2,0)</f>
+        <v>איתי</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="n">
         <v>1987</v>
       </c>
       <c r="D4" s="2" t="n">
@@ -1319,18 +1368,18 @@
       <c r="E4" s="2" t="n">
         <v>22.22</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="19"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="I4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="14" t="n">
         <v>1993</v>
       </c>
       <c r="D5" s="2" t="n">
@@ -1340,18 +1389,18 @@
       <c r="E5" s="2" t="n">
         <v>33.33</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="L5" s="20"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="B6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14" t="n">
         <v>1966</v>
       </c>
       <c r="D6" s="2" t="n">
@@ -1361,22 +1410,22 @@
       <c r="E6" s="2" t="n">
         <v>44.44</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14" t="n">
         <v>2002</v>
       </c>
       <c r="D7" s="2" t="n">
@@ -1386,18 +1435,18 @@
       <c r="E7" s="2" t="n">
         <v>55.55</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="I7" s="21"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="13" t="n">
+      <c r="A8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="14" t="n">
         <v>2009</v>
       </c>
       <c r="D8" s="2" t="n">
@@ -1407,18 +1456,18 @@
       <c r="E8" s="2" t="n">
         <v>66.66</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
-      <c r="I8" s="22"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="B9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14" t="n">
         <v>2017</v>
       </c>
       <c r="D9" s="2" t="n">
@@ -1428,18 +1477,18 @@
       <c r="E9" s="2" t="n">
         <v>77.77</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="I9" s="21"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="13" t="n">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="n">
         <v>2010</v>
       </c>
       <c r="D10" s="2" t="n">
@@ -1449,18 +1498,18 @@
       <c r="E10" s="2" t="n">
         <v>88.88</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="I10" s="21"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14" t="n">
         <v>1988</v>
       </c>
       <c r="D11" s="2" t="n">
@@ -1470,18 +1519,18 @@
       <c r="E11" s="2" t="n">
         <v>99.99</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="I11" s="21"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="14" t="n">
         <v>1945</v>
       </c>
       <c r="D12" s="2" t="n">
@@ -1491,18 +1540,18 @@
       <c r="E12" s="2" t="n">
         <v>88.88</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="I12" s="21"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="B13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="25" t="n">
         <v>2003</v>
       </c>
       <c r="D13" s="2" t="n">
@@ -1512,18 +1561,18 @@
       <c r="E13" s="2" t="n">
         <v>77.77</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="I13" s="21"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="13" t="n">
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="14" t="n">
         <v>1978</v>
       </c>
       <c r="D14" s="2" t="n">
@@ -1533,20 +1582,20 @@
       <c r="E14" s="2" t="n">
         <v>66.66</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="13" t="n">
+      <c r="A15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <v>1992</v>
       </c>
       <c r="D15" s="2" t="n">
@@ -1556,20 +1605,20 @@
       <c r="E15" s="2" t="n">
         <v>55.55</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="13" t="n">
+      <c r="A16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="14" t="n">
         <v>2010</v>
       </c>
       <c r="D16" s="2" t="n">
@@ -1579,50 +1628,50 @@
       <c r="E16" s="2" t="n">
         <v>44.44</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="25"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28" t="n">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30" t="n">
         <f aca="false">SUM(D3:D16)</f>
         <v>3333</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="30" t="n">
         <f aca="false">SUM(E3:E16)</f>
         <v>833.25</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="F17" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D18" s="30" t="n">
+      <c r="D18" s="32" t="n">
         <f aca="false">E17+D17</f>
         <v>4166.25</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="21"/>
+      <c r="E18" s="32"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="32"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I20" s="33"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18"/>
@@ -1658,35 +1707,44 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="B1" s="37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="39" t="n">
+      <c r="B3" s="39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="41" t="n">
+        <v>355.52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="43" t="n">
         <v>355.52</v>
       </c>
     </row>
